--- a/002-nlp-lab/001-imdb-binary-classification/assets/model_performance.xlsx
+++ b/002-nlp-lab/001-imdb-binary-classification/assets/model_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\002-nlp-lab\001-imdb-binary-classification\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E961C267-2AA7-4277-ABA0-63B5B6C898D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFD8A1E-EF69-4DA0-917A-6CA99315BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D171F2A-11B0-4AFF-8F3A-A2B76EA038AA}"/>
   </bookViews>
@@ -36,29 +36,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>model_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>precision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f1-score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distilbert-base-uncased</t>
+  </si>
+  <si>
+    <t>ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=128, lr=2e-5, epochs=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google/bert_uncased_L-4_H-256_A-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google/bert_uncased_L-8_H-512_A-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google/mobilebert-uncased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=64, lr=2e-5, epochs=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albert-base-v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=32, lr=2e-5, epochs=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +165,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -99,14 +191,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,36 +651,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49426882-D1E9-43FE-A020-B628A1EF28DB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.2475</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.2752</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.2828</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.89290000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.1658</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.9073</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.2162</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.91890000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
         <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3.3117999999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.5847</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.626</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.0604</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1.0644</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.68320000000000003</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0.7056</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.66220000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.9244</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.93259999999999998</v>
       </c>
     </row>
   </sheetData>
